--- a/streaks.xlsx
+++ b/streaks.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Home1stHalf2Goal" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Home1stHalfBelow2Goal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HomeOver0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,88 +441,31 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Home1stHalf2Goal</t>
+          <t>HomeOver0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ManchesterCity</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MamelodiSundowns</t>
+          <t>Atl.Madrid</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>HomeGamesPlayed</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Home1stHalfBelow2Goal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AlmereCity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RichardsBay</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
@@ -532,11 +474,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>ShakhtarDonetsk</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -545,37 +487,37 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FKZorya</t>
+          <t>AstonVilla</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ChippaUtd.</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -584,37 +526,37 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LeHavre</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Zhytomyr</t>
+          <t>BayerLeverkusen</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
@@ -623,50 +565,50 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CrystalPalace</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HvidovreIF</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>6</v>
@@ -675,89 +617,89 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ManchesterUtd</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Minaj</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>6</v>
@@ -766,131 +708,287 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>UnionBerlin</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LasPalmas</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>HamburgerSV</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterCity</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>AZAlkmaar</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>MamelodiSundowns</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/streaks.xlsx
+++ b/streaks.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HomeOver0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HomeConceedBelow3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,79 +441,79 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>HomeOver0</t>
+          <t>HomeConceedBelow3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>RBLeipzig</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Atl.Madrid</t>
+          <t>Sekhukhune</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ShakhtarDonetsk</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AstonVilla</t>
+          <t>GreutherFurth</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Atl.Madrid</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -526,72 +526,72 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>ShakhtarDonetsk</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BayerLeverkusen</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>GoldenArrows</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>AstonVilla</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -604,85 +604,85 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Ch.Odessa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>BayerLeverkusen</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -695,20 +695,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>RichardsBay</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -721,7 +721,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -734,33 +734,33 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FKZorya</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -773,46 +773,46 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>ChippaUtd.</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -825,33 +825,33 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HamburgerSV</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -864,130 +864,1508 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>HerthaBerlin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>RealMadrid</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Kryvbas</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>KaizerChiefs</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ManchesterCity</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AZAlkmaar</t>
+          <t>WestHam</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
+          <t>FCCopenhagen</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>BayernMunich</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Polokwane</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>LeHavre</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Zhytomyr</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>CapeTown</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>CrystalPalace</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Schalke</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>KolosKovalivka</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>B.Monchengladbach</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterUtd</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RukhLviv</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>St.Pauli</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>AthBilbao</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Swallows</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Dnipro-1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>HansaRostock</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>OrlandoPirates</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>KarlsruherSC</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>FCKoln</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RoyalAM</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>HamburgerSV</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Metalist1925</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>ASRoma</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>G.A.Eagles</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Nurnberg</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RealSociedad</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>VfLOsnabruck</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>CeltaVigo</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Dyn.Kyiv</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>BristolCity</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>TSGalaxy</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>UnionBerlin</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>ACMilan</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterCity</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>LasPalmas</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>EintrachtFrankfurt</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>SupersportUtd</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>WestBrom</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>CadizCF</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>AZAlkmaar</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
           <t>MamelodiSundowns</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B149" t="n">
         <v>3</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C149" t="n">
         <v>3</v>
       </c>
     </row>

--- a/streaks.xlsx
+++ b/streaks.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HomeConceedBelow3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HomeSecondHalfUnde3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>HomeConceedBelow3</t>
+          <t>HomeSecondHalfUnde3</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -487,37 +487,37 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GreutherFurth</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Atl.Madrid</t>
+          <t>GreutherFurth</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -526,33 +526,33 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ShakhtarDonetsk</t>
+          <t>Atl.Madrid</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>ShakhtarDonetsk</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -565,40 +565,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GoldenArrows</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AstonVilla</t>
+          <t>WerderBremen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>GoldenArrows</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -630,46 +630,46 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ch.Odessa</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Ch.Odessa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -682,33 +682,33 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BayerLeverkusen</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RichardsBay</t>
+          <t>AlmereCity</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>RichardsBay</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -721,11 +721,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>6</v>
@@ -734,59 +734,59 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FKZorya</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>FKZorya</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -799,59 +799,59 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ChippaUtd.</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>ChippaUtd.</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>FCVolendam</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -864,7 +864,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HerthaBerlin</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -877,7 +877,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RealMadrid</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -890,50 +890,50 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>HerthaBerlin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Kryvbas</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>KaizerChiefs</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>7</v>
@@ -942,7 +942,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -955,24 +955,24 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>KaizerChiefs</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>WestHam</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
@@ -981,33 +981,33 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>FCCopenhagen</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BayernMunich</t>
+          <t>WestHam</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1020,7 +1020,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Polokwane</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1033,111 +1033,111 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>GranadaCF</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>LeHavre</t>
+          <t>Oleksandriya</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>FCCopenhagen</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Zhytomyr</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Polokwane</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CapeTown</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>LeHavre</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1150,11 +1150,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>HolsteinKiel</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>6</v>
@@ -1163,20 +1163,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Zhytomyr</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1189,33 +1189,33 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1228,24 +1228,24 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>CapeTown</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>CrystalPalace</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
         <v>6</v>
@@ -1254,7 +1254,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1267,20 +1267,20 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>KolosKovalivka</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1293,7 +1293,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>B.Monchengladbach</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1306,20 +1306,20 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ManchesterUtd</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1332,20 +1332,20 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>RukhLviv</t>
+          <t>Obolon</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>St.Pauli</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1358,46 +1358,46 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>AthBilbao</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>CrystalPalace</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1410,33 +1410,33 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>RayoVallecano</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Dnipro-1</t>
+          <t>HvidovreIF</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1449,46 +1449,46 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>KolosKovalivka</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>SheffieldWed</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>B.Monchengladbach</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1501,33 +1501,33 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>HansaRostock</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>ManchesterUtd</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1540,37 +1540,37 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>RukhLviv</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>St.Pauli</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>AthBilbao</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
         <v>6</v>
@@ -1579,59 +1579,59 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>OrlandoPirates</t>
+          <t>RandersFC</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>KarlsruherSC</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>FCKoln</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1644,24 +1644,24 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
         <v>5</v>
@@ -1670,33 +1670,33 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>RoyalAM</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HamburgerSV</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1709,24 +1709,24 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Dnipro-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Metalist1925</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
         <v>6</v>
@@ -1735,59 +1735,59 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>ASRoma</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>SpartaRotterdam</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1800,63 +1800,63 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>HansaRostock</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>G.A.Eagles</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
         <v>5</v>
@@ -1865,7 +1865,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1878,37 +1878,37 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>RealSociedad</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
         <v>5</v>
@@ -1917,33 +1917,33 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>OrlandoPirates</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>KarlsruherSC</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>VfLOsnabruck</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1956,7 +1956,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>CeltaVigo</t>
+          <t>Veres-Rivne</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1969,20 +1969,20 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Dyn.Kyiv</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>BristolCity</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1995,59 +1995,59 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>TSGalaxy</t>
+          <t>FCKoln</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>UnionBerlin</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>ACMilan</t>
+          <t>RoyalAM</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2060,20 +2060,20 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>HamburgerSV</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2086,180 +2086,180 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>ManchesterCity</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Metalist1925</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>LasPalmas</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>ASRoma</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>6</v>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>EintrachtFrankfurt</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>SupersportUtd</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Minaj</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>AmaZulu</t>
+          <t>G.A.Eagles</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="n">
         <v>5</v>
@@ -2268,104 +2268,624 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>WestBrom</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>CadizCF</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>LNZCherkasy</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>AZAlkmaar</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>VfLOsnabruck</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>CeltaVigo</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Dyn.Kyiv</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>BristolCity</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>TSGalaxy</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>UnionBerlin</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>ACMilan</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Elversberg</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>VorsklaPoltava</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>SheffieldUtd</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>LasPalmas</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>EintrachtFrankfurt</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>SupersportUtd</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>AmaZulu</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>WestBrom</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>CadizCF</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
           <t>MamelodiSundowns</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B189" t="n">
         <v>3</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C189" t="n">
         <v>3</v>
       </c>
     </row>

--- a/streaks.xlsx
+++ b/streaks.xlsx
@@ -1,37 +1,312 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letenok\Documents\work\Flashscore\streaks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABBCF2F-D182-4024-BBFA-1A59BE6C7011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HomeFullTimeOver" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HomeBTS" sheetId="1" r:id="rId1"/>
+    <sheet name="AwayBTS" sheetId="2" r:id="rId2"/>
+    <sheet name="AwayFullTimeOver1" sheetId="3" r:id="rId3"/>
+    <sheet name="HomeFullTimeOver1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+  <si>
+    <t>HomeGamesPlayed</t>
+  </si>
+  <si>
+    <t>HomeBTS</t>
+  </si>
+  <si>
+    <t>Atl.Madrid</t>
+  </si>
+  <si>
+    <t>GoldenArrows</t>
+  </si>
+  <si>
+    <t>AstonVilla</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>GranadaCF</t>
+  </si>
+  <si>
+    <t>HolsteinKiel</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>FCKoln</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Nurnberg</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Dusseldorf</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>MamelodiSundowns</t>
+  </si>
+  <si>
+    <t>AwayBTS</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>RukhLviv</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>KarlsruherSC</t>
+  </si>
+  <si>
+    <t>Dyn.Kyiv</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>HamburgerSV</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>CeltaVigo</t>
+  </si>
+  <si>
+    <t>FCCopenhagen</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>FCVolendam</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>FKZorya</t>
+  </si>
+  <si>
+    <t>B.Monchengladbach</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>WestHam</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>AwayFullTimeOver1</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>ManchesterCity</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>BayernMunich</t>
+  </si>
+  <si>
+    <t>BayerLeverkusen</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>PSV</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>HomeFullTimeOver1</t>
+  </si>
+  <si>
+    <t>RBLeipzig</t>
+  </si>
+  <si>
+    <t>ShakhtarDonetsk</t>
+  </si>
+  <si>
+    <t>WerderBremen</t>
+  </si>
+  <si>
+    <t>HerthaBerlin</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Schalke</t>
+  </si>
+  <si>
+    <t>AthBilbao</t>
+  </si>
+  <si>
+    <t>G.A.Eagles</t>
+  </si>
+  <si>
+    <t>UnionBerlin</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>VorsklaPoltava</t>
+  </si>
+  <si>
+    <t>SheffieldUtd</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +321,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,94 +645,1459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>HomeGamesPlayed</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HomeFullTimeOver</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AstonVilla</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>BayernMunich</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hoffenheim</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>MamelodiSundowns</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C34">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/streaks.xlsx
+++ b/streaks.xlsx
@@ -11,6 +11,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayFullTimeOver2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayBTS" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayGoal" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayUnder3Goal" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayUnder4Goal" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayUnderFirstHlvGoal" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayUnderFirstHlv1Goal" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayUnderFirstHlv2Goal" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayOverFirstHlvGoal" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayOverFirstHlv1Goal" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayOverFirstHlv2Goal" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AwayConceedSecHlvGoal" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,209 +460,359 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>WestHam</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FeralpiSalo</t>
+          <t>SheffieldUtd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>OxfordUtd</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Newport</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Ternana</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayOverFirstHlvGoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Sutton</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Middlesbrough</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Norwich</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>StockportCounty</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>SheffieldUtd</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayOverFirstHlv1Goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayOverFirstHlv2Goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayConceedSecHlvGoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>WestHam</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>4</v>
+      <c r="C4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,7 +849,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>WestHam</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -703,66 +862,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Norwich</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>WestHam</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +919,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>WestHam</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -812,33 +932,33 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>StockportCounty</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WestHam</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -846,32 +966,6 @@
       </c>
       <c r="C5" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,72 +1002,72 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>WestHam</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>CrystalPalace</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RoyaleUnion</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -986,24 +1080,146 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayUnder3Goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>WestHam</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CrystalPalace</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AstonVilla</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>9</v>
@@ -1012,7 +1228,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1025,46 +1241,46 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>SheffieldUtd</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>ManchesterUtd</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1072,81 +1288,842 @@
       </c>
       <c r="C14" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayUnder4Goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterCity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>WestHam</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CrystalPalace</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AstonVilla</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SheffieldUtd</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>ManchesterUtd</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Crewe</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>StockportCounty</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayUnderFirstHlvGoal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>SheffieldUtd</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayUnderFirstHlv1Goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>WestHam</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CrystalPalace</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AstonVilla</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SheffieldUtd</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterUtd</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPlayed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AwayUnderFirstHlv2Goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterCity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>WestHam</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CrystalPalace</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AstonVilla</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SheffieldUtd</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ManchesterUtd</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>9</v>
@@ -1155,92 +2132,14 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>11</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>CrystalPalace</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Tottenham</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>WestHam</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>9</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
